--- a/data/korea_map_21th_election_type_b_data.xlsx
+++ b/data/korea_map_21th_election_type_b_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D254"/>
+  <dimension ref="A1:E254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,10 +379,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>선거구명 전체</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>시도명</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>선거구명</t>
         </is>
@@ -393,106 +398,136 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>전북</t>
+          <t>인천 서구갑</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>군산시</t>
+          <t>인천</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>서구갑</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>인천 서구을</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>안산시상록구을</t>
+          <t>인천</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>서구을</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>충남</t>
+          <t>인천 중구강화군옹진군</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>당진시</t>
+          <t>인천</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>중구강화군옹진군</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>충남</t>
+          <t>전남 목포시</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>서산시태안군</t>
+          <t>전남</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>목포시</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>전북</t>
+          <t>전남 나주시화순군</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>전주시갑</t>
+          <t>전남</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>나주시화순군</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>전북</t>
+          <t>전남 해남군완도군진도군</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>익산시갑</t>
+          <t>전남</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>해남군완도군진도군</t>
         </is>
       </c>
     </row>
@@ -501,16 +536,21 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>전북</t>
+          <t>경기 김포시을</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>완주군진안군무주군장수군</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>김포시을</t>
         </is>
       </c>
     </row>
@@ -519,16 +559,21 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>전남</t>
+          <t>인천 계양구을</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>목포시</t>
+          <t>인천</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>계양구을</t>
         </is>
       </c>
     </row>
@@ -537,50 +582,65 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>전남</t>
+          <t>인천 동구미추홀구갑</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>영암군무안군신안군</t>
+          <t>인천</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>동구미추홀구갑</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>인천 동구미추홀구을</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>인천</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>서구갑</t>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>동구미추홀구을</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>인천 연수구갑</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>인천</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>연수구갑</t>
         </is>
@@ -588,145 +648,185 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>인천 연수구을</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>안산시상록구갑</t>
+          <t>인천</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>연수구을</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>충남 보령시서천군</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>안산시단원구갑</t>
+          <t>충남</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>보령시서천군</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>전북 군산시</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>안산시단원구을</t>
+          <t>전북</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>군산시</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>충남</t>
+          <t>전남 영암군무안군신안군</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>천안시갑</t>
+          <t>전남</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>영암군무안군신안군</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>충남</t>
+          <t>광주 광산구갑</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>논산시계룡시금산군</t>
+          <t>광주</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>광산구갑</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>충남</t>
+          <t>광주 서구을</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>아산시갑</t>
+          <t>광주</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>서구을</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>전북</t>
+          <t>전남 고흥군보성군장흥군강진군</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>김제시부안군</t>
+          <t>전남</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>고흥군보성군장흥군강진군</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>전북</t>
+          <t>전남 여수시갑</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>전주시을</t>
+          <t>전남</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>여수시갑</t>
         </is>
       </c>
     </row>
@@ -735,16 +835,21 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>전북</t>
+          <t>경기 김포시갑</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>익산시을</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>김포시갑</t>
         </is>
       </c>
     </row>
@@ -753,16 +858,21 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>광주</t>
+          <t>경기 고양시정</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>광산구갑</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>고양시정</t>
         </is>
       </c>
     </row>
@@ -771,16 +881,21 @@
         <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>전남</t>
+          <t>경기 부천시정</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>나주시화순군</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>부천시정</t>
         </is>
       </c>
     </row>
@@ -789,16 +904,21 @@
         <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>전남</t>
+          <t>경기 부천시을</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>해남군완도군진도군</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>부천시을</t>
         </is>
       </c>
     </row>
@@ -807,248 +927,318 @@
         <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>전남</t>
+          <t>경기 광명시갑</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>순천시광양시곡성군구례군갑</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>광명시갑</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>경기 광명시을</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>중구강화군옹진군</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>광명시을</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>인천 계양구갑</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>인천</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>서구을</t>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>계양구갑</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>인천 부평구을</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>인천</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>연수구을</t>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>부평구을</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>인천 남동구을</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>시흥시갑</t>
+          <t>인천</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>남동구을</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>인천 남동구갑</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>시흥시을</t>
+          <t>인천</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>남동구갑</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>충남 홍성군예산군</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>부천시갑</t>
+          <t>충남</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>홍성군예산군</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>충남 공주시부여군청양군</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>부천시정</t>
+          <t>충남</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>공주시부여군청양군</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>충남</t>
+          <t>전북 익산시을</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>천안시을</t>
+          <t>전북</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>익산시을</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>충남</t>
+          <t>전북 익산시갑</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>천안시병</t>
+          <t>전북</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>익산시갑</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>충남</t>
+          <t>전북 전주시을</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>아산시을</t>
+          <t>전북</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>전주시을</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>충남</t>
+          <t>전남 담양군함평군영광군장성군</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>홍성군예산군</t>
+          <t>전남</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>담양군함평군영광군장성군</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>전북</t>
+          <t>광주 광산구을</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>전주시병</t>
+          <t>광주</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>광산구을</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>광주 서구갑</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>광주</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>서구갑</t>
         </is>
@@ -1056,19 +1246,24 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>광주</t>
+          <t>전남 여수시을</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>광산구을</t>
+          <t>전남</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>여수시을</t>
         </is>
       </c>
     </row>
@@ -1077,16 +1272,21 @@
         <v>3</v>
       </c>
       <c r="B40" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>전남</t>
+          <t>경기 파주시갑</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>담양군함평군영광군장성군</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>파주시갑</t>
         </is>
       </c>
     </row>
@@ -1095,16 +1295,21 @@
         <v>3</v>
       </c>
       <c r="B41" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>전남</t>
+          <t>경기 고양시을</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>여수시갑</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>고양시을</t>
         </is>
       </c>
     </row>
@@ -1113,104 +1318,134 @@
         <v>3</v>
       </c>
       <c r="B42" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>전남</t>
+          <t>경기 부천시갑</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>순천시광양시곡성군구례군을</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>부천시갑</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>경기 부천시병</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>경기</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>파주시갑</t>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>부천시병</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>서울 양천구갑</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>김포시갑</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>양천구갑</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>서울 양천구을</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>고양시갑</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>양천구을</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>경기 시흥시을</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>계양구갑</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>시흥시을</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>인천 부평구갑</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>인천</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>부평구갑</t>
         </is>
@@ -1218,199 +1453,254 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>충남 당진시</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>남동구갑</t>
+          <t>충남</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>당진시</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>충남 아산시을</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>강서구갑</t>
+          <t>충남</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>아산시을</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>충남 서산시태안군</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>강서구을</t>
+          <t>충남</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>서산시태안군</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>충남 천안시병</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>부천시을</t>
+          <t>충남</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>천안시병</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>전북 김제시부안군</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>평택시갑</t>
+          <t>전북</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>김제시부안군</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>전북 완주군진안군무주군장수군</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>화성시갑</t>
+          <t>전북</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>완주군진안군무주군장수군</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>전북 전주시갑</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>화성시을</t>
+          <t>전북</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>전주시갑</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>전북 전주시병</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>세종특별자치시갑</t>
+          <t>전북</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>전주시병</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>충남</t>
+          <t>광주 북구을</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>보령시서천군</t>
+          <t>광주</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>북구을</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>대전</t>
+          <t>광주 동구남구갑</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>서구갑</t>
+          <t>광주</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>동구남구갑</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>충남</t>
+          <t>전남 순천시광양시곡성군구례군갑</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>공주시부여군청양군</t>
+          <t>전남</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>순천시광양시곡성군구례군갑</t>
         </is>
       </c>
     </row>
@@ -1419,16 +1709,21 @@
         <v>4</v>
       </c>
       <c r="B59" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>전북</t>
+          <t>경기 파주시을</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>정읍시고창군</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>파주시을</t>
         </is>
       </c>
     </row>
@@ -1437,16 +1732,21 @@
         <v>4</v>
       </c>
       <c r="B60" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>광주</t>
+          <t>경기 고양시병</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>서구을</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>고양시병</t>
         </is>
       </c>
     </row>
@@ -1455,16 +1755,21 @@
         <v>4</v>
       </c>
       <c r="B61" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>광주</t>
+          <t>서울 은평구갑</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>동구남구갑</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>은평구갑</t>
         </is>
       </c>
     </row>
@@ -1473,16 +1778,21 @@
         <v>4</v>
       </c>
       <c r="B62" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>전남</t>
+          <t>서울 강서구을</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>고흥군보성군장흥군강진군</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>강서구을</t>
         </is>
       </c>
     </row>
@@ -1491,286 +1801,366 @@
         <v>4</v>
       </c>
       <c r="B63" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>전남</t>
+          <t>서울 강서구갑</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>여수시을</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>강서구갑</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>서울 영등포구갑</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>파주시을</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>영등포구갑</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>서울 구로구을</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>김포시을</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>구로구을</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>경기 시흥시갑</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>경기</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>고양시을</t>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>시흥시갑</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>경기 안산시단원구갑</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>계양구을</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>안산시단원구갑</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B68" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>충남 아산시갑</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>부평구을</t>
+          <t>충남</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>아산시갑</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B69" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>충남 천안시을</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>남동구을</t>
+          <t>충남</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>천안시을</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B70" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>충남 천안시갑</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>양천구갑</t>
+          <t>충남</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>천안시갑</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B71" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>세종 세종특별자치시갑</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>강서구병</t>
+          <t>세종</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>세종특별자치시갑</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B72" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>대전 유성구을</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>부천시병</t>
+          <t>대전</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>유성구을</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B73" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>대전 유성구갑</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>평택시을</t>
+          <t>대전</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>유성구갑</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B74" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>전북 남원시임실군순창군</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>광명시갑</t>
+          <t>전북</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>남원시임실군순창군</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B75" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>전북 정읍시고창군</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>화성시병</t>
+          <t>전북</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>정읍시고창군</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>세종</t>
+          <t>광주 북구갑</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>세종특별자치시을</t>
+          <t>광주</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>북구갑</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B77" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>충북</t>
+          <t>광주 동구남구을</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>보은군옥천군영동군괴산군</t>
+          <t>광주</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>동구남구을</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B78" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>대전</t>
+          <t>전남 순천시광양시곡성군구례군을</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>서구을</t>
+          <t>전남</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>순천시광양시곡성군구례군을</t>
         </is>
       </c>
     </row>
@@ -1779,16 +2169,21 @@
         <v>5</v>
       </c>
       <c r="B79" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>대전</t>
+          <t>경기 양주시</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>유성구갑</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>양주시</t>
         </is>
       </c>
     </row>
@@ -1797,16 +2192,21 @@
         <v>5</v>
       </c>
       <c r="B80" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>전북</t>
+          <t>경기 고양시갑</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>남원시임실군순창군</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>고양시갑</t>
         </is>
       </c>
     </row>
@@ -1815,16 +2215,21 @@
         <v>5</v>
       </c>
       <c r="B81" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>광주</t>
+          <t>서울 종로구</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>북구갑</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>종로구</t>
         </is>
       </c>
     </row>
@@ -1833,16 +2238,21 @@
         <v>5</v>
       </c>
       <c r="B82" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>광주</t>
+          <t>서울 강서구병</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>동구남구을</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>강서구병</t>
         </is>
       </c>
     </row>
@@ -1851,286 +2261,366 @@
         <v>5</v>
       </c>
       <c r="B83" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>경남</t>
+          <t>서울 마포구을</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>사천시남해군하동군</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>마포구을</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
+        <v>5</v>
+      </c>
+      <c r="B84" t="n">
         <v>6</v>
       </c>
-      <c r="B84" t="n">
-        <v>1</v>
-      </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>서울 영등포구을</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>동두천시연천군</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>영등포구을</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>서울 동작구갑</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>고양시병</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>동작구갑</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>서울 구로구갑</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>동구미추홀구갑</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>구로구갑</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B87" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기 안양시만안구</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>서대문구갑</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>안양시만안구</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B88" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기 안산시상록구을</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>마포구갑</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>안산시상록구을</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B89" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기 안산시단원구을</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>양천구을</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>안산시단원구을</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B90" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>충남 논산시계룡시금산군</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>영등포구갑</t>
+          <t>충남</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>논산시계룡시금산군</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B91" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>세종 세종특별자치시을</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>관악구갑</t>
+          <t>세종</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>세종특별자치시을</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B92" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>대전 서구을</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>금천구</t>
+          <t>대전</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>서구을</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B93" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>대전 서구갑</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>광명시을</t>
+          <t>대전</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>서구갑</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B94" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>경남 산청군함양군거창군합천군</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>안양시만안구</t>
+          <t>경남</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>산청군함양군거창군합천군</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B95" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>충북</t>
+          <t>경남 진주시갑</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>청주시상당구</t>
+          <t>경남</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>진주시갑</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B96" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>충북</t>
+          <t>경남 통영시고성군</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>증평군진천군음성군</t>
+          <t>경남</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>통영시고성군</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B97" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>대전</t>
+          <t>경남 사천시남해군하동군</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>경남</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>사천시남해군하동군</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B98" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>대전</t>
+          <t>경남 창원시마산합포구</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>유성구을</t>
+          <t>경남</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>창원시마산합포구</t>
         </is>
       </c>
     </row>
@@ -2139,16 +2629,21 @@
         <v>6</v>
       </c>
       <c r="B99" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>경남</t>
+          <t>경기 동두천시연천군</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>밀양시의령군함안군창녕군</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>동두천시연천군</t>
         </is>
       </c>
     </row>
@@ -2157,16 +2652,21 @@
         <v>6</v>
       </c>
       <c r="B100" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>광주</t>
+          <t>경기 의정부시갑</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>북구을</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>의정부시갑</t>
         </is>
       </c>
     </row>
@@ -2175,16 +2675,21 @@
         <v>6</v>
       </c>
       <c r="B101" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>경남</t>
+          <t>서울 은평구을</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>거제시</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>은평구을</t>
         </is>
       </c>
     </row>
@@ -2193,16 +2698,21 @@
         <v>6</v>
       </c>
       <c r="B102" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>경남</t>
+          <t>서울 성북구갑</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>양산시을</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>성북구갑</t>
         </is>
       </c>
     </row>
@@ -2211,16 +2721,21 @@
         <v>6</v>
       </c>
       <c r="B103" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>부산</t>
+          <t>서울 서대문구을</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>남구갑</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>서대문구을</t>
         </is>
       </c>
     </row>
@@ -2229,304 +2744,389 @@
         <v>6</v>
       </c>
       <c r="B104" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>제주</t>
+          <t>서울 마포구갑</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>제주시갑</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>마포구갑</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>강원</t>
+          <t>서울 동작구을</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>춘천시철원군화천군양구군갑</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>동작구을</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
+        <v>6</v>
+      </c>
+      <c r="B106" t="n">
         <v>7</v>
       </c>
-      <c r="B106" t="n">
-        <v>1</v>
-      </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>서울 관악구갑</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>의정부시갑</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>관악구갑</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B107" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>서울 금천구</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>고양시정</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>금천구</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B108" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>경기 안양시동안구을</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>동구미추홀구을</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>안양시동안구을</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B109" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기 안산시상록구갑</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>서대문구을</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>안산시상록구갑</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B110" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기 화성시갑</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>마포구을</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>화성시갑</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B111" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>대전 동구</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>동작구갑</t>
+          <t>대전</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>동구</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B112" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>대전 대덕구</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>영등포구을</t>
+          <t>대전</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>대덕구</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B113" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>대전 중구</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>관악구을</t>
+          <t>대전</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>중구</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B114" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경남 밀양시의령군함안군창녕군</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>구로구갑</t>
+          <t>경남</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>밀양시의령군함안군창녕군</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B115" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>경남 진주시을</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>군포시</t>
+          <t>경남</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>진주시을</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B116" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>경남 창원시의창구</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>안양시동안구갑</t>
+          <t>경남</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>창원시의창구</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B117" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>충북</t>
+          <t>경남 창원시성산구</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>청주시서원구</t>
+          <t>경남</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>창원시성산구</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B118" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>충북</t>
+          <t>경남 창원시마산회원구</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>청주시청원구</t>
+          <t>경남</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>창원시마산회원구</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B119" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>대전</t>
+          <t>경남 창원시진해구</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>동구</t>
+          <t>경남</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>창원시진해구</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B120" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>대전</t>
+          <t>경남 거제시</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>대덕구</t>
+          <t>경남</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>거제시</t>
         </is>
       </c>
     </row>
@@ -2535,16 +3135,21 @@
         <v>7</v>
       </c>
       <c r="B121" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>경남</t>
+          <t>경기 의정부시을</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>통영시고성군</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>의정부시을</t>
         </is>
       </c>
     </row>
@@ -2553,16 +3158,21 @@
         <v>7</v>
       </c>
       <c r="B122" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>경남</t>
+          <t>서울 도봉구을</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>진주시갑</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>도봉구을</t>
         </is>
       </c>
     </row>
@@ -2571,16 +3181,21 @@
         <v>7</v>
       </c>
       <c r="B123" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>경남</t>
+          <t>서울 강북구갑</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>양산시갑</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>강북구갑</t>
         </is>
       </c>
     </row>
@@ -2589,16 +3204,21 @@
         <v>7</v>
       </c>
       <c r="B124" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>부산</t>
+          <t>서울 강북구을</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>금정구</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>강북구을</t>
         </is>
       </c>
     </row>
@@ -2607,16 +3227,21 @@
         <v>7</v>
       </c>
       <c r="B125" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>부산</t>
+          <t>서울 서대문구갑</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>남구을</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>서대문구갑</t>
         </is>
       </c>
     </row>
@@ -2625,268 +3250,343 @@
         <v>7</v>
       </c>
       <c r="B126" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>제주</t>
+          <t>서울 용산구</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>제주시을</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>용산구</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>강원</t>
+          <t>서울 서초구갑</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>춘천시철원군화천군양구군을</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>서초구갑</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>서울 서초구을</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>의정부시을</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>서초구을</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
+        <v>7</v>
+      </c>
+      <c r="B129" t="n">
         <v>8</v>
       </c>
-      <c r="B129" t="n">
-        <v>2</v>
-      </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>서울 관악구을</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>서울</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>강북구갑</t>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>관악구을</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B130" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기 안양시동안구갑</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>은평구갑</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>안양시동안구갑</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B131" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기 군포시</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>은평구을</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>군포시</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B132" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기 수원시을</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>수원시을</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B133" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>충북 청주시청원구</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>동작구을</t>
+          <t>충북</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>청주시청원구</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B134" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>대구 서구</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>서초구갑</t>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>서구</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B135" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>대구 달서구갑</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>강남구갑</t>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>달서구갑</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B136" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>대구 달성군</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>구로구을</t>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>달성군</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B137" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>경남 양산시을</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>의왕시과천시</t>
+          <t>경남</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>양산시을</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B138" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>경남 김해시갑</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>안양시동안구을</t>
+          <t>경남</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>김해시갑</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B139" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>충북</t>
+          <t>경남 김해시을</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>청주시흥덕구</t>
+          <t>경남</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>김해시을</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B140" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>충북</t>
+          <t>부산 사하구을</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>충주시</t>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>사하구을</t>
         </is>
       </c>
     </row>
@@ -2895,16 +3595,21 @@
         <v>8</v>
       </c>
       <c r="B141" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>대구</t>
+          <t>경기 포천시가평군</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>달서구갑</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>포천시가평군</t>
         </is>
       </c>
     </row>
@@ -2913,16 +3618,21 @@
         <v>8</v>
       </c>
       <c r="B142" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>경남</t>
+          <t>서울 노원구병</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>김해시갑</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>노원구병</t>
         </is>
       </c>
     </row>
@@ -2931,16 +3641,21 @@
         <v>8</v>
       </c>
       <c r="B143" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>경남</t>
+          <t>서울 도봉구갑</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>창원시의창구</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>도봉구갑</t>
         </is>
       </c>
     </row>
@@ -2949,16 +3664,21 @@
         <v>8</v>
       </c>
       <c r="B144" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>경남</t>
+          <t>서울 성북구을</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>진주시을</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>성북구을</t>
         </is>
       </c>
     </row>
@@ -2967,16 +3687,21 @@
         <v>8</v>
       </c>
       <c r="B145" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>부산</t>
+          <t>서울 동대문구갑</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>북구강서구갑</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>동대문구갑</t>
         </is>
       </c>
     </row>
@@ -2985,16 +3710,21 @@
         <v>8</v>
       </c>
       <c r="B146" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>부산</t>
+          <t>서울 중구성동구갑</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>연제구</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>중구성동구갑</t>
         </is>
       </c>
     </row>
@@ -3003,16 +3733,21 @@
         <v>8</v>
       </c>
       <c r="B147" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>부산</t>
+          <t>서울 강남구갑</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>해운대구갑</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>강남구갑</t>
         </is>
       </c>
     </row>
@@ -3021,232 +3756,297 @@
         <v>8</v>
       </c>
       <c r="B148" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>제주</t>
+          <t>서울 강남구을</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>서귀포시</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>강남구을</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>강원</t>
+          <t>경기 의왕시과천시</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>속초시인제군고성군양양군</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>의왕시과천시</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
+        <v>8</v>
+      </c>
+      <c r="B150" t="n">
         <v>9</v>
       </c>
-      <c r="B150" t="n">
-        <v>1</v>
-      </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>경기 수원시갑</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>경기</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>남양주시갑</t>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>수원시갑</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B151" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기 수원시병</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>도봉구갑</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>수원시병</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B152" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기 평택시을</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>강북구을</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>평택시을</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B153" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>충북 청주시서원구</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>성북구갑</t>
+          <t>충북</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>청주시서원구</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B154" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>대구 북구을</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>동대문구갑</t>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>북구을</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B155" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>대구 달서구병</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>용산구</t>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>달서구병</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B156" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>대구 달서구을</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>서초구을</t>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>달서구을</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B157" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경남 양산시갑</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>강남구을</t>
+          <t>경남</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>양산시갑</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B158" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>부산 서구동구</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>수원시갑</t>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>서구동구</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B159" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>부산 사상구</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>수원시병</t>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>사상구</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B160" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>부산 사하구갑</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>오산시</t>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>사하구갑</t>
         </is>
       </c>
     </row>
@@ -3255,16 +4055,21 @@
         <v>9</v>
       </c>
       <c r="B161" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>충북</t>
+          <t>강원 춘천시철원군화천군양구군갑</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>제천시단양군</t>
+          <t>강원</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>춘천시철원군화천군양구군갑</t>
         </is>
       </c>
     </row>
@@ -3273,16 +4078,21 @@
         <v>9</v>
       </c>
       <c r="B162" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>대구</t>
+          <t>서울 노원구을</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>수성구갑</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>노원구을</t>
         </is>
       </c>
     </row>
@@ -3291,16 +4101,21 @@
         <v>9</v>
       </c>
       <c r="B163" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>대구</t>
+          <t>서울 노원구갑</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>달서구을</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>노원구갑</t>
         </is>
       </c>
     </row>
@@ -3309,16 +4124,21 @@
         <v>9</v>
       </c>
       <c r="B164" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>경남</t>
+          <t>경기 여주시양평군</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>김해시을</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>여주시양평군</t>
         </is>
       </c>
     </row>
@@ -3327,16 +4147,21 @@
         <v>9</v>
       </c>
       <c r="B165" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>경남</t>
+          <t>서울 동대문구을</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>창원시성산구</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>동대문구을</t>
         </is>
       </c>
     </row>
@@ -3345,16 +4170,21 @@
         <v>9</v>
       </c>
       <c r="B166" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>경남</t>
+          <t>서울 중구성동구을</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>창원시마산회원구</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>중구성동구을</t>
         </is>
       </c>
     </row>
@@ -3363,16 +4193,21 @@
         <v>9</v>
       </c>
       <c r="B167" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>부산</t>
+          <t>서울 강남구병</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>북구강서구을</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>강남구병</t>
         </is>
       </c>
     </row>
@@ -3381,16 +4216,21 @@
         <v>9</v>
       </c>
       <c r="B168" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>부산</t>
+          <t>서울 송파구을</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>수영구</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>송파구을</t>
         </is>
       </c>
     </row>
@@ -3399,196 +4239,251 @@
         <v>9</v>
       </c>
       <c r="B169" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>부산</t>
+          <t>경기 성남시수정구</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>해운대구을</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>성남시수정구</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>강원</t>
+          <t>경기 용인시병</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>강릉시</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>용인시병</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
+        <v>9</v>
+      </c>
+      <c r="B171" t="n">
         <v>10</v>
       </c>
-      <c r="B171" t="n">
-        <v>1</v>
-      </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>경기 수원시정</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>경기</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>남양주시을</t>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>수원시정</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B172" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경기 오산시</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>노원구갑</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>오산시</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B173" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>충북 청주시흥덕구</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>도봉구을</t>
+          <t>충북</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>청주시흥덕구</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B174" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>충북 보은군옥천군영동군괴산군</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>성북구을</t>
+          <t>충북</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>보은군옥천군영동군괴산군</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B175" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>대구 북구갑</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>동대문구을</t>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>북구갑</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B176" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>대구 중구남구</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>중구성동구갑</t>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>중구남구</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B177" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>부산 북구강서구갑</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>송파구갑</t>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>북구강서구갑</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B178" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>부산 북구강서구을</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>강남구병</t>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>북구강서구을</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B179" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>부산 부산진구을</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>수원시을</t>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>부산진구을</t>
         </is>
       </c>
     </row>
@@ -3597,16 +4492,21 @@
         <v>10</v>
       </c>
       <c r="B180" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>강원 춘천시철원군화천군양구군을</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>수원시정</t>
+          <t>강원</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>춘천시철원군화천군양구군을</t>
         </is>
       </c>
     </row>
@@ -3615,16 +4515,21 @@
         <v>10</v>
       </c>
       <c r="B181" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>강원 원주시갑</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>안성시</t>
+          <t>강원</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>원주시갑</t>
         </is>
       </c>
     </row>
@@ -3633,16 +4538,21 @@
         <v>10</v>
       </c>
       <c r="B182" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>대구</t>
+          <t>서울 중랑구을</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>서구</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>중랑구을</t>
         </is>
       </c>
     </row>
@@ -3651,16 +4561,21 @@
         <v>10</v>
       </c>
       <c r="B183" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>대구</t>
+          <t>경기 남양주시을</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>수성구을</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>남양주시을</t>
         </is>
       </c>
     </row>
@@ -3669,16 +4584,21 @@
         <v>10</v>
       </c>
       <c r="B184" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>대구</t>
+          <t>서울 중랑구갑</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>달서구병</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>중랑구갑</t>
         </is>
       </c>
     </row>
@@ -3687,16 +4607,21 @@
         <v>10</v>
       </c>
       <c r="B185" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>경남</t>
+          <t>서울 광진구갑</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>산청군함양군거창군합천군</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>광진구갑</t>
         </is>
       </c>
     </row>
@@ -3705,16 +4630,21 @@
         <v>10</v>
       </c>
       <c r="B186" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>경남</t>
+          <t>서울 광진구을</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>창원시마산합포구</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>광진구을</t>
         </is>
       </c>
     </row>
@@ -3723,16 +4653,21 @@
         <v>10</v>
       </c>
       <c r="B187" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>경남</t>
+          <t>서울 송파구병</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>창원시진해구</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>송파구병</t>
         </is>
       </c>
     </row>
@@ -3741,16 +4676,21 @@
         <v>10</v>
       </c>
       <c r="B188" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>부산</t>
+          <t>경기 성남시중원구</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>부산진구갑</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>성남시중원구</t>
         </is>
       </c>
     </row>
@@ -3759,16 +4699,21 @@
         <v>10</v>
       </c>
       <c r="B189" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>부산</t>
+          <t>경기 성남시분당구갑</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>사상구</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>성남시분당구갑</t>
         </is>
       </c>
     </row>
@@ -3777,160 +4722,205 @@
         <v>10</v>
       </c>
       <c r="B190" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>부산</t>
+          <t>경기 수원시무</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>중구영도구</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>수원시무</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
+        <v>10</v>
+      </c>
+      <c r="B191" t="n">
         <v>11</v>
       </c>
-      <c r="B191" t="n">
-        <v>1</v>
-      </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>강원</t>
+          <t>경기 평택시갑</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>원주시갑</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>평택시갑</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B192" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>충북 청주시상당구</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>남양주시병</t>
+          <t>충북</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>청주시상당구</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B193" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>대구 동구갑</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>노원구을</t>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>동구갑</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B194" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>대구 수성구을</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>노원구병</t>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>수성구을</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B195" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>부산 동래구</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>중랑구갑</t>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>동래구</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B196" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>부산 연제구</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>중구성동구을</t>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>연제구</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B197" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>부산 부산진구갑</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>송파구을</t>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>부산진구갑</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B198" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>부산 중구영도구</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>송파구병</t>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>중구영도구</t>
         </is>
       </c>
     </row>
@@ -3939,16 +4929,21 @@
         <v>11</v>
       </c>
       <c r="B199" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>강원 속초시인제군고성군양양군</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>성남시분당구갑</t>
+          <t>강원</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>속초시인제군고성군양양군</t>
         </is>
       </c>
     </row>
@@ -3957,16 +4952,21 @@
         <v>11</v>
       </c>
       <c r="B200" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>강원 홍천군횡성군영월군평창군</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>수원시무</t>
+          <t>강원</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>홍천군횡성군영월군평창군</t>
         </is>
       </c>
     </row>
@@ -3975,16 +4975,21 @@
         <v>11</v>
       </c>
       <c r="B201" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>대구</t>
+          <t>강원 원주시을</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>중구남구</t>
+          <t>강원</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>원주시을</t>
         </is>
       </c>
     </row>
@@ -3993,16 +4998,21 @@
         <v>11</v>
       </c>
       <c r="B202" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>대구</t>
+          <t>경기 남양주시갑</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>북구갑</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>남양주시갑</t>
         </is>
       </c>
     </row>
@@ -4011,16 +5021,21 @@
         <v>11</v>
       </c>
       <c r="B203" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>대구</t>
+          <t>서울 강동구갑</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>달성군</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>강동구갑</t>
         </is>
       </c>
     </row>
@@ -4029,16 +5044,21 @@
         <v>11</v>
       </c>
       <c r="B204" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>경북</t>
+          <t>서울 강동구을</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>김천시</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>강동구을</t>
         </is>
       </c>
     </row>
@@ -4047,16 +5067,21 @@
         <v>11</v>
       </c>
       <c r="B205" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>울산</t>
+          <t>서울 송파구갑</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>동구</t>
+          <t>서울</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>송파구갑</t>
         </is>
       </c>
     </row>
@@ -4065,16 +5090,21 @@
         <v>11</v>
       </c>
       <c r="B206" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>울산</t>
+          <t>경기 광주시갑</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>광주시갑</t>
         </is>
       </c>
     </row>
@@ -4083,16 +5113,21 @@
         <v>11</v>
       </c>
       <c r="B207" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>부산</t>
+          <t>경기 성남시분당구을</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>사하구갑</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>성남시분당구을</t>
         </is>
       </c>
     </row>
@@ -4101,16 +5136,21 @@
         <v>11</v>
       </c>
       <c r="B208" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>부산</t>
+          <t>경기 용인시을</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>부산진구을</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>용인시을</t>
         </is>
       </c>
     </row>
@@ -4119,160 +5159,205 @@
         <v>11</v>
       </c>
       <c r="B209" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>부산</t>
+          <t>경기 화성시을</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>기장군</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>화성시을</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B210" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>강원</t>
+          <t>경기 화성시병</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>원주시을</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>화성시병</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
+        <v>11</v>
+      </c>
+      <c r="B211" t="n">
         <v>12</v>
       </c>
-      <c r="B211" t="n">
-        <v>3</v>
-      </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>충북 증평군진천군음성군</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>포천시가평군</t>
+          <t>충북</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>증평군진천군음성군</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B212" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>대구 동구을</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>양주시</t>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>동구을</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B213" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>대구 수성구갑</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>중랑구을</t>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>수성구갑</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B214" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>부산 수영구</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>광진구갑</t>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>수영구</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B215" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>부산 남구갑</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>강동구갑</t>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>남구갑</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B216" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>부산 남구을</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>강동구을</t>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>남구을</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B217" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>부산 해운대구을</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>성남시분당구을</t>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>해운대구을</t>
         </is>
       </c>
     </row>
@@ -4281,16 +5366,21 @@
         <v>12</v>
       </c>
       <c r="B218" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>강원 강릉시</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>성남시수정구</t>
+          <t>강원</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>강릉시</t>
         </is>
       </c>
     </row>
@@ -4299,16 +5389,21 @@
         <v>12</v>
       </c>
       <c r="B219" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>대구</t>
+          <t>강원 동해시태백시삼척시정선군</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>동구갑</t>
+          <t>강원</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>동해시태백시삼척시정선군</t>
         </is>
       </c>
     </row>
@@ -4317,16 +5412,21 @@
         <v>12</v>
       </c>
       <c r="B220" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>대구</t>
+          <t>경기 남양주시병</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>북구을</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>남양주시병</t>
         </is>
       </c>
     </row>
@@ -4335,16 +5435,21 @@
         <v>12</v>
       </c>
       <c r="B221" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>경북</t>
+          <t>경기 구리시</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>안동시예천군</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>구리시</t>
         </is>
       </c>
     </row>
@@ -4353,16 +5458,21 @@
         <v>12</v>
       </c>
       <c r="B222" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>경북</t>
+          <t>경기 이천시</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>영천시청도군</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>이천시</t>
         </is>
       </c>
     </row>
@@ -4371,16 +5481,21 @@
         <v>12</v>
       </c>
       <c r="B223" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>울산</t>
+          <t>경기 하남시</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>북구</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>하남시</t>
         </is>
       </c>
     </row>
@@ -4389,16 +5504,21 @@
         <v>12</v>
       </c>
       <c r="B224" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>울산</t>
+          <t>경기 광주시을</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>남구갑</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>광주시을</t>
         </is>
       </c>
     </row>
@@ -4407,16 +5527,21 @@
         <v>12</v>
       </c>
       <c r="B225" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>부산</t>
+          <t>경기 용인시갑</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>사하구을</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>용인시갑</t>
         </is>
       </c>
     </row>
@@ -4425,160 +5550,205 @@
         <v>12</v>
       </c>
       <c r="B226" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>부산</t>
+          <t>경기 용인시정</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>서구동구</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>용인시정</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B227" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>강원</t>
+          <t>충북 제천시단양군</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>홍천군횡성군영월군평창군</t>
+          <t>충북</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>제천시단양군</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B228" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>강원</t>
+          <t>충북 충주시</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>동해시태백시삼척시정선군</t>
+          <t>충북</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>충주시</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B229" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>경북 김천시</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>구리시</t>
+          <t>경북</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>김천시</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
+        <v>12</v>
+      </c>
+      <c r="B230" t="n">
         <v>13</v>
       </c>
-      <c r="B230" t="n">
-        <v>6</v>
-      </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>서울</t>
+          <t>경북 고령군성주군칠곡군</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>광진구을</t>
+          <t>경북</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>고령군성주군칠곡군</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B231" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>울산 중구</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>광주시갑</t>
+          <t>울산</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>중구</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B232" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>울산 남구갑</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>용인시갑</t>
+          <t>울산</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>남구갑</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B233" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>부산 금정구</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>하남시</t>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>금정구</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B234" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>부산 해운대구갑</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>성남시중원구</t>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>해운대구갑</t>
         </is>
       </c>
     </row>
@@ -4587,16 +5757,21 @@
         <v>13</v>
       </c>
       <c r="B235" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>대구</t>
+          <t>경북 영주시영양군봉화군울진군</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>동구을</t>
+          <t>경북</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>영주시영양군봉화군울진군</t>
         </is>
       </c>
     </row>
@@ -4605,16 +5780,21 @@
         <v>13</v>
       </c>
       <c r="B236" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
+          <t>경북 상주시문경시</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
           <t>경북</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>구미시갑</t>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>상주시문경시</t>
         </is>
       </c>
     </row>
@@ -4623,16 +5803,21 @@
         <v>13</v>
       </c>
       <c r="B237" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
+          <t>경북 안동시예천군</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
           <t>경북</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>포항시남구울릉군</t>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>안동시예천군</t>
         </is>
       </c>
     </row>
@@ -4641,16 +5826,21 @@
         <v>13</v>
       </c>
       <c r="B238" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>경북</t>
+          <t>경기 안성시</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>경산시</t>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>안성시</t>
         </is>
       </c>
     </row>
@@ -4659,16 +5849,21 @@
         <v>13</v>
       </c>
       <c r="B239" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>울산</t>
+          <t>경북 구미시을</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>울주군</t>
+          <t>경북</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>구미시을</t>
         </is>
       </c>
     </row>
@@ -4677,16 +5872,21 @@
         <v>13</v>
       </c>
       <c r="B240" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>울산</t>
+          <t>경북 구미시갑</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>남구을</t>
+          <t>경북</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>구미시갑</t>
         </is>
       </c>
     </row>
@@ -4695,88 +5895,113 @@
         <v>13</v>
       </c>
       <c r="B241" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>부산</t>
+          <t>경북 경산시</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>동래구</t>
+          <t>경북</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>경산시</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B242" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>울산 울주군</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>여주시양평군</t>
+          <t>울산</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>울주군</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
+        <v>13</v>
+      </c>
+      <c r="B243" t="n">
         <v>14</v>
       </c>
-      <c r="B243" t="n">
-        <v>6</v>
-      </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>울산 동구</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>이천시</t>
+          <t>울산</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>동구</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B244" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>울산 남구을</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>광주시을</t>
+          <t>울산</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>남구을</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B245" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>부산 기장군</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>용인시을</t>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>기장군</t>
         </is>
       </c>
     </row>
@@ -4789,12 +6014,17 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>경북 군위군의성군청송군영덕군</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>용인시병</t>
+          <t>경북</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>군위군의성군청송군영덕군</t>
         </is>
       </c>
     </row>
@@ -4807,12 +6037,17 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
+          <t>경북 포항시북구</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
           <t>경북</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>상주시문경시</t>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>포항시북구</t>
         </is>
       </c>
     </row>
@@ -4825,12 +6060,17 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
+          <t>경북 영천시청도군</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
           <t>경북</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>고령군성주군칠곡군</t>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>영천시청도군</t>
         </is>
       </c>
     </row>
@@ -4843,12 +6083,17 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
+          <t>경북 경주시</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
           <t>경북</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>구미시을</t>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>경주시</t>
         </is>
       </c>
     </row>
@@ -4861,48 +6106,63 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>경북</t>
+          <t>울산 북구</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>포항시북구</t>
+          <t>울산</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>북구</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B251" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>경기</t>
+          <t>제주 제주시갑</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>용인시정</t>
+          <t>제주</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>제주시갑</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B252" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>경북</t>
+          <t>제주 서귀포시</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>군위군의성군청송군영덕군</t>
+          <t>제주</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>서귀포시</t>
         </is>
       </c>
     </row>
@@ -4915,30 +6175,40 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
+          <t>경북 포항시남구울릉군</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
           <t>경북</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>경주시</t>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>포항시남구울릉군</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B254" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>경북</t>
+          <t>제주 제주시을</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>영주시영양군봉화군울진군</t>
+          <t>제주</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>제주시을</t>
         </is>
       </c>
     </row>
